--- a/data/trans_orig/dukeCONF-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/dukeCONF-Provincia-trans_orig.xlsx
@@ -693,7 +693,7 @@
         <v>29.46514276460017</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>31.75802463693838</v>
+        <v>31.75802463693837</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>26.43607950366242</v>
+        <v>26.42098599693686</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>29.18333138288808</v>
+        <v>29.13284767807108</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>28.91202409311283</v>
+        <v>28.90385268522914</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>31.41683903619227</v>
+        <v>31.41035217694252</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>25.18309329845492</v>
+        <v>25.08938812422622</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>26.97072944518621</v>
+        <v>27.0098604138321</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>28.61351589763184</v>
+        <v>28.63584469032915</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>31.2762516951668</v>
+        <v>31.32579752735206</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>26.08331138513101</v>
+        <v>26.09708218325736</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>28.31614990834106</v>
+        <v>28.31712461539819</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28.94753565655301</v>
+        <v>28.98910095613848</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>31.46039716010486</v>
+        <v>31.47609487741072</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>28.0262048404319</v>
+        <v>27.95796495879607</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>30.39149939898871</v>
+        <v>30.40776715259483</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>30.20827028118937</v>
+        <v>30.25487765272842</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32.26814073585399</v>
+        <v>32.25310035115641</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>26.78878909984408</v>
+        <v>26.76489817668649</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>28.73056429668115</v>
+        <v>28.66551652474349</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>29.96633730036758</v>
+        <v>29.92545737964717</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>31.99241714625178</v>
+        <v>32.02769859804145</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>27.2663387135674</v>
+        <v>27.22006003426229</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>29.40013565213488</v>
+        <v>29.41442383409577</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>29.89927683034641</v>
+        <v>29.89264255414527</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>32.01693759749306</v>
+        <v>32.0499598852648</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>29.23033168512387</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30.53632750810165</v>
+        <v>30.53632750810164</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>28.74814697805018</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>29.46600244290008</v>
+        <v>29.4614472310389</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>30.16117661689129</v>
+        <v>30.13371910625691</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>28.79711274146375</v>
+        <v>28.84234408557602</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>29.9792860839965</v>
+        <v>30.04157539907879</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>28.17684179538151</v>
+        <v>28.18551901854652</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>29.9043439707512</v>
+        <v>29.86862503039037</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>28.89342378197659</v>
+        <v>28.86074576214419</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>30.28438120197545</v>
+        <v>30.23370985050466</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>28.97982503783419</v>
+        <v>28.9322215224646</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>30.15886473421697</v>
+        <v>30.20211176000863</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>28.9834769839172</v>
+        <v>28.99036569250434</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>30.28475746360777</v>
+        <v>30.26078425815086</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>30.49858967414206</v>
+        <v>30.51515403531467</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>31.15311162969735</v>
+        <v>31.11910183531696</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>29.6137233684298</v>
+        <v>29.60978045805816</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>31.02743082344474</v>
+        <v>31.02627175813913</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>29.25642676266072</v>
+        <v>29.28734474385138</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>30.92638434088698</v>
+        <v>30.87602208301317</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>29.6524334760812</v>
+        <v>29.6579939234366</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>31.03405417163792</v>
+        <v>31.01056550303079</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>29.75793784885282</v>
+        <v>29.75095408148302</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>30.8728466983566</v>
+        <v>30.89131147536306</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>29.57204367891474</v>
+        <v>29.5296564522449</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>30.90554207702246</v>
+        <v>30.88891116144244</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>30.67794328881587</v>
+        <v>30.73048720555774</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>31.06211819336406</v>
+        <v>31.00334475967266</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>29.62353416948261</v>
+        <v>29.63020158285168</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>31.18007780961501</v>
+        <v>31.16187335715642</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>30.60063329822936</v>
+        <v>30.61011473799606</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>30.11653704827336</v>
+        <v>30.08002347389433</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>29.30098154399106</v>
+        <v>29.23306488267738</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>30.86991084175975</v>
+        <v>30.81006778717943</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>30.83854363716996</v>
+        <v>30.83007825083321</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>30.63686862116921</v>
+        <v>30.70724634278034</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>29.62648186290691</v>
+        <v>29.63099031046439</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>31.18056018161663</v>
+        <v>31.15583090660488</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>31.68697829918448</v>
+        <v>31.73379183254636</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>32.02782218800272</v>
+        <v>32.04499084374692</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>30.63642452312959</v>
+        <v>30.61295012333277</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>32.23387128514445</v>
+        <v>32.23536810798171</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>31.64864126202572</v>
+        <v>31.67115506390413</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>31.07385629466341</v>
+        <v>31.08240705188009</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>30.30845108421867</v>
+        <v>30.26366258931375</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>31.73317162749228</v>
+        <v>31.7567307134279</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>31.55450220393366</v>
+        <v>31.57745586839473</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>31.39184184261502</v>
+        <v>31.39794739669096</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>30.3156077822046</v>
+        <v>30.31572376975971</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>31.82837943152657</v>
+        <v>31.84740723042244</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>31.46787119601839</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32.3474852279861</v>
+        <v>32.34748522798609</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>29.7520721972171</v>
@@ -1089,7 +1089,7 @@
         <v>31.27658364201525</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>32.08002528413519</v>
+        <v>32.08002528413517</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>29.94956929036407</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>29.64922902257283</v>
+        <v>29.62695039678665</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>30.71550194216838</v>
+        <v>30.72639647875045</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>30.75075993085215</v>
+        <v>30.84628269631102</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>31.58883999113342</v>
+        <v>31.58313505646325</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>29.18927579568071</v>
+        <v>29.20897818613291</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>29.93121862659471</v>
+        <v>29.88960997919324</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>30.62461472206975</v>
+        <v>30.53798742499934</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>31.37822821605499</v>
+        <v>31.41825579281411</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>29.59008550409531</v>
+        <v>29.55200339139287</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>30.46037722357935</v>
+        <v>30.49188375577901</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>30.88991985288921</v>
+        <v>30.91634309333919</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>31.73876275544971</v>
+        <v>31.69802398643636</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>30.60265511191735</v>
+        <v>30.58313793128639</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>31.83506515446405</v>
+        <v>31.86266841225515</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>31.98682698593251</v>
+        <v>32.03043433610082</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>32.93200019307683</v>
+        <v>32.93363637663638</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>30.27411836349328</v>
+        <v>30.24564021224018</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>31.03694695094898</v>
+        <v>31.00993608408433</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>31.84183899164816</v>
+        <v>31.75072947665352</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>32.51887637802186</v>
+        <v>32.55268237560753</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>30.32052379308981</v>
+        <v>30.31626747114053</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>31.26223676297613</v>
+        <v>31.25552539985723</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>31.77415146318201</v>
+        <v>31.79346423723264</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>32.57275346476005</v>
+        <v>32.57625175760249</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>30.09520376505221</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>28.54990809951802</v>
+        <v>28.54990809951801</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>28.37500663287367</v>
+        <v>28.33639219654428</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>30.68387997455725</v>
+        <v>30.68333899342203</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>29.38378321856619</v>
+        <v>29.4365154911852</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>28.01484769566802</v>
+        <v>28.05336054199262</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>27.57912338883642</v>
+        <v>27.6314134549904</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>29.24505849017362</v>
+        <v>29.28106010553508</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>29.58359635611338</v>
+        <v>29.61575611498633</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>28.06529923711756</v>
+        <v>28.09655406233033</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>28.17962590202338</v>
+        <v>28.16751720312977</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>30.24214152786654</v>
+        <v>30.17561556994792</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>29.69768438026465</v>
+        <v>29.6762490586948</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>28.21279031360301</v>
+        <v>28.22227029816653</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>29.93060907841639</v>
+        <v>29.8787217280159</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>31.94521869669457</v>
+        <v>31.87767143413813</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>30.54573524001379</v>
+        <v>30.53690187143494</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>29.07446705999059</v>
+        <v>29.14419029368532</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>29.04587181919385</v>
+        <v>28.99010163381725</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>30.72872186396074</v>
+        <v>30.69421469968533</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>30.61510260382549</v>
+        <v>30.61502504752177</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>28.88692355685103</v>
+        <v>28.87727607540559</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>29.26368068970523</v>
+        <v>29.21356466215502</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>31.15343916419884</v>
+        <v>31.12786971420008</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>30.44564667272629</v>
+        <v>30.44617415238909</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>28.89549925216876</v>
+        <v>28.91184201685326</v>
       </c>
     </row>
     <row r="19">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>29.56297575797429</v>
+        <v>29.60731555500022</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>30.39332289801917</v>
+        <v>30.30274360830502</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>29.79123228835983</v>
+        <v>29.82872167230885</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>31.12224674006251</v>
+        <v>31.09309856037576</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>28.42503056029409</v>
+        <v>28.4135936808862</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>29.64851982547739</v>
+        <v>29.66718739274546</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>28.83972105259664</v>
+        <v>28.76775404738273</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>31.34141439955358</v>
+        <v>31.34480629312278</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>29.14163401661702</v>
+        <v>29.16549178501042</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>30.15581174010305</v>
+        <v>30.16618409212434</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>29.50354679936809</v>
+        <v>29.47663949670706</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>31.41593579921764</v>
+        <v>31.38768490181322</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>30.73508731873252</v>
+        <v>30.73410415485217</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>31.60301767264235</v>
+        <v>31.53249639084278</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>30.93469318048104</v>
+        <v>30.98618645297175</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>32.23490843726028</v>
+        <v>32.15389351152502</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>29.65136265066846</v>
+        <v>29.68380660797805</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>30.71157889155613</v>
+        <v>30.7884161222476</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>30.17929977573244</v>
+        <v>30.12178356879717</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>32.21847223861469</v>
+        <v>32.26408483703483</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>30.02582580727495</v>
+        <v>30.05146139841286</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>30.98221803335385</v>
+        <v>30.98486105730729</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>30.40000877998685</v>
+        <v>30.38376209992597</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>32.08373881274944</v>
+        <v>32.10270061680845</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>31.12043961191688</v>
+        <v>31.11346705571179</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>30.64259315961714</v>
+        <v>30.6260647249992</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>28.60762483593464</v>
+        <v>28.61814850157402</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>30.36907750773475</v>
+        <v>30.30530781668248</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>30.67120452629386</v>
+        <v>30.67218391442509</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>30.3338424445854</v>
+        <v>30.32782205992862</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>28.43338622495361</v>
+        <v>28.45696044114305</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>30.23056389064853</v>
+        <v>30.18926694155238</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>31.05710571829845</v>
+        <v>31.03734773444928</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>30.56863325165325</v>
+        <v>30.57330825212709</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>28.62399349781677</v>
+        <v>28.6376867285197</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>30.40318680667178</v>
+        <v>30.3623689913799</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>31.89549113700547</v>
+        <v>31.89962964667505</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>31.42654837625014</v>
+        <v>31.42293057241447</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>29.3827948641084</v>
+        <v>29.41592450788724</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>31.19110541044411</v>
+        <v>31.17041999534556</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>31.51358620281743</v>
+        <v>31.52690174115125</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>31.02173252046738</v>
+        <v>31.02020546124233</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>29.18532355868226</v>
+        <v>29.19757475284366</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>30.92674694847923</v>
+        <v>30.93281369985922</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>31.62010999652337</v>
+        <v>31.59867620708921</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>31.10502751881039</v>
+        <v>31.12701652150367</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>29.16049060192519</v>
+        <v>29.17798880426852</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>30.95251729210515</v>
+        <v>30.92066286474091</v>
       </c>
     </row>
     <row r="25">
@@ -1633,7 +1633,7 @@
         <v>28.8832571098803</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>27.5715787247887</v>
+        <v>27.57157872478871</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>29.12716640524941</v>
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>29.17487134984514</v>
+        <v>29.14899396154256</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>29.07814119433564</v>
+        <v>29.03839561674921</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>28.87003232966246</v>
+        <v>28.89976621247582</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>27.84499834094106</v>
+        <v>27.84797740857096</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>28.37022005456327</v>
+        <v>28.36833656428509</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>29.09065597811914</v>
+        <v>29.16984328148561</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>28.55845053794761</v>
+        <v>28.58022346842736</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>27.21309184247202</v>
+        <v>27.1995461096214</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>28.89760761946948</v>
+        <v>28.90094884886417</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>29.18871413731373</v>
+        <v>29.19770850105008</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>28.81840712714864</v>
+        <v>28.80874384413139</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>27.63452689656052</v>
+        <v>27.63553783547126</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>29.88371004207143</v>
+        <v>29.86245966821346</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>29.65415525546501</v>
+        <v>29.65423185637168</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>29.42636577288939</v>
+        <v>29.43332512274444</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>28.72795311821309</v>
+        <v>28.70772922192204</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>29.09356895694409</v>
+        <v>29.1198721012936</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>29.69109211500781</v>
+        <v>29.71467724715788</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>29.1303936289664</v>
+        <v>29.12344142689162</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>27.9504162546339</v>
+        <v>27.91155460902644</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>29.39253908237705</v>
+        <v>29.37385908135652</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>29.61284826516416</v>
+        <v>29.6036263079711</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>29.22119916750519</v>
+        <v>29.21167028327354</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>28.17777285874846</v>
+        <v>28.20221307814151</v>
       </c>
     </row>
     <row r="28">
@@ -1757,7 +1757,7 @@
         <v>29.67167292657596</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>30.46629065128963</v>
+        <v>30.46629065128962</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>29.33922465401762</v>
@@ -1781,7 +1781,7 @@
         <v>29.55462498455668</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>30.32787492909922</v>
+        <v>30.32787492909923</v>
       </c>
     </row>
     <row r="29">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>29.85854038507891</v>
+        <v>29.86647373212529</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>30.40770784283417</v>
+        <v>30.40778003451061</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>29.51516089589522</v>
+        <v>29.51494590691967</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>30.26339366318895</v>
+        <v>30.28507086245338</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>29.14295016297289</v>
+        <v>29.12512021730131</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>29.86065180078827</v>
+        <v>29.84333081739766</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>29.27174329273004</v>
+        <v>29.26468637070264</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>30.03764597946729</v>
+        <v>30.03866099632921</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>29.55747508361557</v>
+        <v>29.54501471269719</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>30.18399274778895</v>
+        <v>30.18123352567719</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>29.43997740014922</v>
+        <v>29.44792029355746</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>30.19639506254877</v>
+        <v>30.20159096529769</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>30.24073187587425</v>
+        <v>30.22635044885373</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>30.75784859296027</v>
+        <v>30.75287689900381</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>29.8315702464656</v>
+        <v>29.82222216723338</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>30.64657478677932</v>
+        <v>30.67021809160928</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>29.51611257979186</v>
+        <v>29.51851212348667</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>30.20509864651044</v>
+        <v>30.18712643075304</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>29.60403806307324</v>
+        <v>29.60006396263578</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>30.34814398210441</v>
+        <v>30.36597178236401</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>29.83852231918814</v>
+        <v>29.82383036844563</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>30.42449084311148</v>
+        <v>30.4312611755994</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>29.67341485126672</v>
+        <v>29.67169783606294</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>30.45881108127124</v>
+        <v>30.4560246470491</v>
       </c>
     </row>
     <row r="31">
